--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raazi\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825C5D13-38BC-48C2-9549-F1A66BE136B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AEF613-773F-44DB-9D9F-2AB62E0BF4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1044" yWindow="2376" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t>ankara messi</t>
   </si>
   <si>
-    <t>hbjda</t>
+    <t>hbjdaadsfaf</t>
   </si>
 </sst>
 </file>
